--- a/Code/Results/Cases/Case_1_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1346403771646294</v>
+        <v>0.04382726404007542</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03007950541081783</v>
+        <v>0.0610941525082076</v>
       </c>
       <c r="E2">
-        <v>0.164132601722585</v>
+        <v>0.07415118220752248</v>
       </c>
       <c r="F2">
-        <v>1.929171207963847</v>
+        <v>1.71459237914236</v>
       </c>
       <c r="G2">
-        <v>0.0007870791166925128</v>
+        <v>0.0024834632783052</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4001125567831672</v>
+        <v>0.6485265063505103</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.559241933368412</v>
+        <v>1.347527313325543</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.056553272368753</v>
+        <v>0.4200880741095929</v>
       </c>
       <c r="N2">
-        <v>1.090378017781759</v>
+        <v>1.931502099246231</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1176921765991921</v>
+        <v>0.03850589579796093</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03166443067575386</v>
+        <v>0.06166449192951617</v>
       </c>
       <c r="E3">
-        <v>0.141890279459794</v>
+        <v>0.06875439041070663</v>
       </c>
       <c r="F3">
-        <v>1.733978442499847</v>
+        <v>1.675056690142142</v>
       </c>
       <c r="G3">
-        <v>0.0007956001207061437</v>
+        <v>0.002488695114563778</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3962288013931889</v>
+        <v>0.6499974744972867</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.064883646871976</v>
+        <v>1.221639574532105</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.910066782704078</v>
+        <v>0.3832854564961394</v>
       </c>
       <c r="N3">
-        <v>1.11876106209025</v>
+        <v>1.943920516330941</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1072587838933003</v>
+        <v>0.03523861601355094</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03270586374214624</v>
+        <v>0.0620359071110439</v>
       </c>
       <c r="E4">
-        <v>0.1285798952124715</v>
+        <v>0.06549120452573831</v>
       </c>
       <c r="F4">
-        <v>1.618485270562871</v>
+        <v>1.651884489558114</v>
       </c>
       <c r="G4">
-        <v>0.0008009626203362116</v>
+        <v>0.002492074519392035</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3945368641266853</v>
+        <v>0.6511632311583888</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.766624259188973</v>
+        <v>1.145038627748562</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8218786637282633</v>
+        <v>0.3609282249870205</v>
       </c>
       <c r="N4">
-        <v>1.137935689426953</v>
+        <v>1.952176144748549</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1029997576247723</v>
+        <v>0.03390732221785697</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03314617912976736</v>
+        <v>0.06219257651186716</v>
       </c>
       <c r="E5">
-        <v>0.1232313901975282</v>
+        <v>0.06417390214585694</v>
       </c>
       <c r="F5">
-        <v>1.57240157263972</v>
+        <v>1.642717283082021</v>
       </c>
       <c r="G5">
-        <v>0.0008031825326245303</v>
+        <v>0.002493493805350792</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.394011311655234</v>
+        <v>0.6517041993856196</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.646213424643094</v>
+        <v>1.113995168526031</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7863200054043205</v>
+        <v>0.3518767987256695</v>
       </c>
       <c r="N5">
-        <v>1.146165175055472</v>
+        <v>1.95569856305022</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1022920925054578</v>
+        <v>0.03368627485681941</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03322022104823574</v>
+        <v>0.0622189116950338</v>
       </c>
       <c r="E6">
-        <v>0.1223475223755663</v>
+        <v>0.06395591206518603</v>
       </c>
       <c r="F6">
-        <v>1.564805480266628</v>
+        <v>1.641211675710395</v>
       </c>
       <c r="G6">
-        <v>0.0008035532904326903</v>
+        <v>0.002493732026938456</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3939336600461125</v>
+        <v>0.6517980044146761</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.626282311375718</v>
+        <v>1.108850741217339</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7804366656094501</v>
+        <v>0.3503773718711756</v>
       </c>
       <c r="N6">
-        <v>1.147556126057417</v>
+        <v>1.956293000024232</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.107201375515757</v>
+        <v>0.03522066093748322</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03271173906446734</v>
+        <v>0.06203799852105973</v>
       </c>
       <c r="E7">
-        <v>0.1285074718625374</v>
+        <v>0.06547338870975494</v>
       </c>
       <c r="F7">
-        <v>1.617859943058846</v>
+        <v>1.651759743516962</v>
       </c>
       <c r="G7">
-        <v>0.0008009924162892702</v>
+        <v>0.002492093489482843</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.394529125584473</v>
+        <v>0.6511702601226474</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.764996017128368</v>
+        <v>1.144619271622219</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8213976525304005</v>
+        <v>0.3608059153230201</v>
       </c>
       <c r="N7">
-        <v>1.138045021945068</v>
+        <v>1.95222300939421</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1288019411187804</v>
+        <v>0.0419925217535706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03061101938470046</v>
+        <v>0.06128638686993959</v>
       </c>
       <c r="E8">
-        <v>0.1563842418934129</v>
+        <v>0.07227976086112875</v>
       </c>
       <c r="F8">
-        <v>1.860892348873861</v>
+        <v>1.700730543973336</v>
       </c>
       <c r="G8">
-        <v>0.0007899912030791802</v>
+        <v>0.002485232636656392</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3986232286441656</v>
+        <v>0.6489791286758013</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.387568435752428</v>
+        <v>1.303975421756149</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.005640882764339</v>
+        <v>0.4073481881950514</v>
       </c>
       <c r="N8">
-        <v>1.099786899745659</v>
+        <v>1.935652829675753</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1709727394655545</v>
+        <v>0.05526740356897619</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02709789647601468</v>
+        <v>0.05998188823687656</v>
       </c>
       <c r="E9">
-        <v>0.2143840382726765</v>
+        <v>0.08603804604451426</v>
       </c>
       <c r="F9">
-        <v>2.377819494167355</v>
+        <v>1.805595996569849</v>
       </c>
       <c r="G9">
-        <v>0.0007693626989439301</v>
+        <v>0.002473097095746338</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.412658127878494</v>
+        <v>0.6467713504177084</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.660183491188377</v>
+        <v>1.622119907275078</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.384037068812319</v>
+        <v>0.5005677235905637</v>
       </c>
       <c r="N9">
-        <v>1.03981484469584</v>
+        <v>1.908181124179436</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.201885545749505</v>
+        <v>0.06501156416595677</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02499198672995107</v>
+        <v>0.05912813054542099</v>
       </c>
       <c r="E10">
-        <v>0.2599564676166963</v>
+        <v>0.09641257847457751</v>
       </c>
       <c r="F10">
-        <v>2.791329633570257</v>
+        <v>1.888152023048804</v>
       </c>
       <c r="G10">
-        <v>0.0007546396787781805</v>
+        <v>0.002464975429199833</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4274250062406821</v>
+        <v>0.6464312359527895</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.642372971020052</v>
+        <v>1.859517296895262</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.677493826346662</v>
+        <v>0.5703192176193994</v>
       </c>
       <c r="N10">
-        <v>1.006796604762897</v>
+        <v>1.89108481355305</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2159443227580624</v>
+        <v>0.06944129654746689</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02416621629317106</v>
+        <v>0.05876276722043983</v>
       </c>
       <c r="E11">
-        <v>0.2815760974587604</v>
+        <v>0.1011935519063982</v>
       </c>
       <c r="F11">
-        <v>2.989162563371565</v>
+        <v>1.92693385348295</v>
       </c>
       <c r="G11">
-        <v>0.0007479985218173418</v>
+        <v>0.002461451114710695</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4353147474195751</v>
+        <v>0.6465567562988142</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.103559242344488</v>
+        <v>1.968357763462222</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.815672453025016</v>
+        <v>0.6023418855721872</v>
       </c>
       <c r="N11">
-        <v>0.9946629746734885</v>
+        <v>1.883983210382453</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2212684218797563</v>
+        <v>0.07111817771490792</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02387551493722029</v>
+        <v>0.05862775055177138</v>
       </c>
       <c r="E12">
-        <v>0.2899147554823855</v>
+        <v>0.1030130990231868</v>
       </c>
       <c r="F12">
-        <v>3.065709552337466</v>
+        <v>1.94179804131636</v>
       </c>
       <c r="G12">
-        <v>0.0007454881876418745</v>
+        <v>0.002460140877374609</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4384907180494366</v>
+        <v>0.6466447325975153</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.280669808327502</v>
+        <v>2.009698104824338</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.868800396925963</v>
+        <v>0.614511298886498</v>
       </c>
       <c r="N12">
-        <v>0.9905315291140653</v>
+        <v>1.881391651815562</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2201217519459107</v>
+        <v>0.07075705858738957</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02393709081968609</v>
+        <v>0.05865667985820266</v>
       </c>
       <c r="E13">
-        <v>0.2881117042165755</v>
+        <v>0.1026208184864004</v>
       </c>
       <c r="F13">
-        <v>3.049147116414474</v>
+        <v>1.938588808866257</v>
       </c>
       <c r="G13">
-        <v>0.0007460286943197676</v>
+        <v>0.002460421979989367</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.437797998310451</v>
+        <v>0.6466239841966939</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.242409020209209</v>
+        <v>2.000789123069126</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.857320376102336</v>
+        <v>0.6118884626194045</v>
       </c>
       <c r="N13">
-        <v>0.9913998604442043</v>
+        <v>1.881945438377983</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2163823274567278</v>
+        <v>0.06957926664075842</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02414184016540588</v>
+        <v>0.05875159224123294</v>
       </c>
       <c r="E14">
-        <v>0.2822589314844492</v>
+        <v>0.10134306341957</v>
       </c>
       <c r="F14">
-        <v>2.995425962669799</v>
+        <v>1.928153153448164</v>
       </c>
       <c r="G14">
-        <v>0.0007477919267997457</v>
+        <v>0.002461342833505244</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4355721400960775</v>
+        <v>0.6465631827498655</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.118078234289101</v>
+        <v>1.971756339339663</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.820026424142782</v>
+        <v>0.6033421999983091</v>
       </c>
       <c r="N14">
-        <v>0.994313491538378</v>
+        <v>1.883768040982375</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2140918938960539</v>
+        <v>0.06885775768263613</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02427021792099993</v>
+        <v>0.05881016445728804</v>
       </c>
       <c r="E15">
-        <v>0.2786944794093387</v>
+        <v>0.1005615935027109</v>
       </c>
       <c r="F15">
-        <v>2.962740249604366</v>
+        <v>1.921784298207115</v>
       </c>
       <c r="G15">
-        <v>0.0007488724320282715</v>
+        <v>0.002461910049044926</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4342338906071745</v>
+        <v>0.6465312115460762</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.042256541095355</v>
+        <v>1.953989265820496</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.797291501531987</v>
+        <v>0.5981130158115064</v>
       </c>
       <c r="N15">
-        <v>0.9961600608768038</v>
+        <v>1.884897171911263</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2009667711709255</v>
+        <v>0.06472199966461289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02504885681535995</v>
+        <v>0.05915247348062991</v>
       </c>
       <c r="E16">
-        <v>0.2585634242341968</v>
+        <v>0.09610139003599016</v>
       </c>
       <c r="F16">
-        <v>2.778615677745393</v>
+        <v>1.885642389604953</v>
       </c>
       <c r="G16">
-        <v>0.0007550745342591167</v>
+        <v>0.002465209165617638</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4269346088452721</v>
+        <v>0.6464286845096225</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.612555747691658</v>
+        <v>1.852421618875098</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.668568389491426</v>
+        <v>0.56823243619084</v>
       </c>
       <c r="N16">
-        <v>1.007651615938798</v>
+        <v>1.891562558522182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1929146005006999</v>
+        <v>0.06218399423893572</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02556235555611153</v>
+        <v>0.05936838410789491</v>
       </c>
       <c r="E17">
-        <v>0.2464572254122075</v>
+        <v>0.09338113714078844</v>
       </c>
       <c r="F17">
-        <v>2.668307842707719</v>
+        <v>1.863786063052004</v>
       </c>
       <c r="G17">
-        <v>0.0007588913774853351</v>
+        <v>0.002467276577505571</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4227702065539845</v>
+        <v>0.6464376671610665</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.352899493948655</v>
+        <v>1.79033225830301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.590886624387323</v>
+        <v>0.5499773144032503</v>
       </c>
       <c r="N17">
-        <v>1.015472810783322</v>
+        <v>1.895824956873284</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1882828086585278</v>
+        <v>0.06072393270696352</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02586994446122759</v>
+        <v>0.05949473473069489</v>
       </c>
       <c r="E18">
-        <v>0.2395760588736593</v>
+        <v>0.09182229777164963</v>
       </c>
       <c r="F18">
-        <v>2.605761255121962</v>
+        <v>1.851330224288233</v>
       </c>
       <c r="G18">
-        <v>0.0007610922772670614</v>
+        <v>0.002468481733459305</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4204839628527068</v>
+        <v>0.6464692024139325</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.204878719285887</v>
+        <v>1.754699660919982</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.54663821178201</v>
+        <v>0.5395049040337625</v>
       </c>
       <c r="N18">
-        <v>1.020239787201106</v>
+        <v>1.898340134538174</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1867144703020784</v>
+        <v>0.06022953922990837</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02597610801697314</v>
+        <v>0.05953788577157582</v>
       </c>
       <c r="E19">
-        <v>0.237259623053923</v>
+        <v>0.09129548651124253</v>
       </c>
       <c r="F19">
-        <v>2.584731978971206</v>
+        <v>1.847132642340682</v>
       </c>
       <c r="G19">
-        <v>0.0007618385190192673</v>
+        <v>0.002468892536633022</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4197280430927179</v>
+        <v>0.6464844041234485</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.154977995625529</v>
+        <v>1.742648650023625</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.531727037088785</v>
+        <v>0.5359638081822453</v>
       </c>
       <c r="N19">
-        <v>1.021898548042714</v>
+        <v>1.899202631209747</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1937718027908772</v>
+        <v>0.06245419799844854</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02550640617581479</v>
+        <v>0.05934517582393184</v>
       </c>
       <c r="E20">
-        <v>0.2477373018013793</v>
+        <v>0.09367011291846694</v>
       </c>
       <c r="F20">
-        <v>2.679955614172741</v>
+        <v>1.86610075478302</v>
       </c>
       <c r="G20">
-        <v>0.0007584845177380783</v>
+        <v>0.002467054839445174</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4232020974576756</v>
+        <v>0.6464339808330379</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.380400324531934</v>
+        <v>1.796933521006338</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.599110386170963</v>
+        <v>0.5519177542300753</v>
       </c>
       <c r="N20">
-        <v>1.014612122149373</v>
+        <v>1.895364635490964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2174806704390733</v>
+        <v>0.06992522906173804</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02408107674888171</v>
+        <v>0.05872362333446546</v>
       </c>
       <c r="E21">
-        <v>0.2839737040113448</v>
+        <v>0.1017181222100589</v>
       </c>
       <c r="F21">
-        <v>3.011158844152448</v>
+        <v>1.931213502296259</v>
       </c>
       <c r="G21">
-        <v>0.0007472739308753898</v>
+        <v>0.002461071697155469</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4362206476916626</v>
+        <v>0.6465799427813934</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.154526687472242</v>
+        <v>1.980280560026074</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.830957650286251</v>
+        <v>0.6058512654097683</v>
       </c>
       <c r="N21">
-        <v>0.9934446941926183</v>
+        <v>1.883230043686979</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2329782544031076</v>
+        <v>0.07480463744850852</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02327957358786747</v>
+        <v>0.05833687606621751</v>
       </c>
       <c r="E22">
-        <v>0.3085548704891821</v>
+        <v>0.1070310979467521</v>
       </c>
       <c r="F22">
-        <v>3.237266145744712</v>
+        <v>1.97480893835106</v>
       </c>
       <c r="G22">
-        <v>0.0007399714979355895</v>
+        <v>0.002457303199637511</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4458377451528719</v>
+        <v>0.6469111479733201</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.675087948169562</v>
+        <v>2.100837415900742</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.987236722105436</v>
+        <v>0.641351807058939</v>
       </c>
       <c r="N22">
-        <v>0.9823387531247931</v>
+        <v>1.875868894302016</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2247063710189821</v>
+        <v>0.07220075731514441</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02369431888892848</v>
+        <v>0.05854149882147652</v>
       </c>
       <c r="E23">
-        <v>0.2953442909251081</v>
+        <v>0.1041905186734482</v>
       </c>
       <c r="F23">
-        <v>3.115619226233235</v>
+        <v>1.951445374565395</v>
       </c>
       <c r="G23">
-        <v>0.0007438680424068877</v>
+        <v>0.002459301586290985</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4405962268794141</v>
+        <v>0.6467127519818163</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.395767622561436</v>
+        <v>2.036426249802446</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.903344729121642</v>
+        <v>0.6223810911069307</v>
       </c>
       <c r="N23">
-        <v>0.9879987232282588</v>
+        <v>1.879745395988508</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1933842694612053</v>
+        <v>0.06233204176022866</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02553166257472483</v>
+        <v>0.05935566137424431</v>
       </c>
       <c r="E24">
-        <v>0.2471583354349178</v>
+        <v>0.09353945119514862</v>
       </c>
       <c r="F24">
-        <v>2.674686961364841</v>
+        <v>1.865053941249556</v>
       </c>
       <c r="G24">
-        <v>0.0007586684383508728</v>
+        <v>0.002467155035467631</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4230065048709406</v>
+        <v>0.6464355652931602</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.367963306823697</v>
+        <v>1.79394889287687</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.595391150090009</v>
+        <v>0.5510404107531883</v>
       </c>
       <c r="N24">
-        <v>1.015000400593337</v>
+        <v>1.895572545400071</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1595801596476463</v>
+        <v>0.05167732682984649</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02797347854457399</v>
+        <v>0.06031651294392759</v>
       </c>
       <c r="E25">
-        <v>0.1982480468161398</v>
+        <v>0.08227044632079838</v>
       </c>
       <c r="F25">
-        <v>2.232783664683737</v>
+        <v>1.776268464166975</v>
       </c>
       <c r="G25">
-        <v>0.0007748558779055036</v>
+        <v>0.002476239905276001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4081417296425585</v>
+        <v>0.6471441054161104</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.308869561878339</v>
+        <v>1.535426873287747</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.279359866609923</v>
+        <v>0.4751329715155634</v>
       </c>
       <c r="N25">
-        <v>1.054248683760264</v>
+        <v>1.915072674647078</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04382726404007542</v>
+        <v>0.1346403771645015</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0610941525082076</v>
+        <v>0.0300795054108125</v>
       </c>
       <c r="E2">
-        <v>0.07415118220752248</v>
+        <v>0.1641326017225495</v>
       </c>
       <c r="F2">
-        <v>1.71459237914236</v>
+        <v>1.929171207963847</v>
       </c>
       <c r="G2">
-        <v>0.0024834632783052</v>
+        <v>0.000787079116698083</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6485265063505103</v>
+        <v>0.4001125567831707</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.347527313325543</v>
+        <v>3.559241933368469</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4200880741095929</v>
+        <v>1.056553272368767</v>
       </c>
       <c r="N2">
-        <v>1.931502099246231</v>
+        <v>1.090378017781774</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03850589579796093</v>
+        <v>0.1176921765990357</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06166449192951617</v>
+        <v>0.03166443067593505</v>
       </c>
       <c r="E3">
-        <v>0.06875439041070663</v>
+        <v>0.1418902794598189</v>
       </c>
       <c r="F3">
-        <v>1.675056690142142</v>
+        <v>1.733978442499819</v>
       </c>
       <c r="G3">
-        <v>0.002488695114563778</v>
+        <v>0.0007956001207052252</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6499974744972867</v>
+        <v>0.3962288013932032</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.221639574532105</v>
+        <v>3.064883646871976</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3832854564961394</v>
+        <v>0.9100667827040709</v>
       </c>
       <c r="N3">
-        <v>1.943920516330941</v>
+        <v>1.118761062090236</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03523861601355094</v>
+        <v>0.1072587838934353</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0620359071110439</v>
+        <v>0.03270586374235762</v>
       </c>
       <c r="E4">
-        <v>0.06549120452573831</v>
+        <v>0.1285798952124395</v>
       </c>
       <c r="F4">
-        <v>1.651884489558114</v>
+        <v>1.618485270562857</v>
       </c>
       <c r="G4">
-        <v>0.002492074519392035</v>
+        <v>0.0008009626203079009</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6511632311583888</v>
+        <v>0.3945368641266853</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.145038627748562</v>
+        <v>2.766624259188973</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3609282249870205</v>
+        <v>0.8218786637282705</v>
       </c>
       <c r="N4">
-        <v>1.952176144748549</v>
+        <v>1.137935689426904</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03390732221785697</v>
+        <v>0.102999757624616</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06219257651186716</v>
+        <v>0.03314617912967677</v>
       </c>
       <c r="E5">
-        <v>0.06417390214585694</v>
+        <v>0.1232313901975068</v>
       </c>
       <c r="F5">
-        <v>1.642717283082021</v>
+        <v>1.57240157263972</v>
       </c>
       <c r="G5">
-        <v>0.002493493805350792</v>
+        <v>0.0008031825325793866</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6517041993856196</v>
+        <v>0.394011311655234</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.113995168526031</v>
+        <v>2.646213424643037</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3518767987256695</v>
+        <v>0.7863200054043062</v>
       </c>
       <c r="N5">
-        <v>1.95569856305022</v>
+        <v>1.146165175055472</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03368627485681941</v>
+        <v>0.1022920925054578</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0622189116950338</v>
+        <v>0.03322022104813094</v>
       </c>
       <c r="E6">
-        <v>0.06395591206518603</v>
+        <v>0.1223475223755592</v>
       </c>
       <c r="F6">
-        <v>1.641211675710395</v>
+        <v>1.564805480266614</v>
       </c>
       <c r="G6">
-        <v>0.002493732026938456</v>
+        <v>0.0008035532904638588</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6517980044146761</v>
+        <v>0.3939336600461125</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.108850741217339</v>
+        <v>2.626282311375689</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3503773718711756</v>
+        <v>0.7804366656094501</v>
       </c>
       <c r="N6">
-        <v>1.956293000024232</v>
+        <v>1.147556126057424</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03522066093748322</v>
+        <v>0.1072013755156718</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06203799852105973</v>
+        <v>0.03271173906446734</v>
       </c>
       <c r="E7">
-        <v>0.06547338870975494</v>
+        <v>0.1285074718625339</v>
       </c>
       <c r="F7">
-        <v>1.651759743516962</v>
+        <v>1.617859943058832</v>
       </c>
       <c r="G7">
-        <v>0.002492093489482843</v>
+        <v>0.0008009924162142809</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6511702601226474</v>
+        <v>0.3945291255844587</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.144619271622219</v>
+        <v>2.764996017128396</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3608059153230201</v>
+        <v>0.8213976525304219</v>
       </c>
       <c r="N7">
-        <v>1.95222300939421</v>
+        <v>1.138045021945011</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0419925217535706</v>
+        <v>0.128801941118887</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06128638686993959</v>
+        <v>0.03061101938470401</v>
       </c>
       <c r="E8">
-        <v>0.07227976086112875</v>
+        <v>0.1563842418934129</v>
       </c>
       <c r="F8">
-        <v>1.700730543973336</v>
+        <v>1.860892348873861</v>
       </c>
       <c r="G8">
-        <v>0.002485232636656392</v>
+        <v>0.0007899912030211729</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6489791286758013</v>
+        <v>0.3986232286441656</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.303975421756149</v>
+        <v>3.387568435752428</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4073481881950514</v>
+        <v>1.005640882764332</v>
       </c>
       <c r="N8">
-        <v>1.935652829675753</v>
+        <v>1.099786899745659</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05526740356897619</v>
+        <v>0.1709727394654266</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05998188823687656</v>
+        <v>0.02709789647589744</v>
       </c>
       <c r="E9">
-        <v>0.08603804604451426</v>
+        <v>0.2143840382726694</v>
       </c>
       <c r="F9">
-        <v>1.805595996569849</v>
+        <v>2.377819494167298</v>
       </c>
       <c r="G9">
-        <v>0.002473097095746338</v>
+        <v>0.0007693626989441205</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6467713504177084</v>
+        <v>0.412658127878494</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.622119907275078</v>
+        <v>4.660183491188434</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5005677235905637</v>
+        <v>1.384037068812319</v>
       </c>
       <c r="N9">
-        <v>1.908181124179436</v>
+        <v>1.039814844695854</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06501156416595677</v>
+        <v>0.2018855457494908</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05912813054542099</v>
+        <v>0.02499198673017844</v>
       </c>
       <c r="E10">
-        <v>0.09641257847457751</v>
+        <v>0.2599564676167105</v>
       </c>
       <c r="F10">
-        <v>1.888152023048804</v>
+        <v>2.791329633570228</v>
       </c>
       <c r="G10">
-        <v>0.002464975429199833</v>
+        <v>0.0007546396788336698</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6464312359527895</v>
+        <v>0.4274250062406821</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.859517296895262</v>
+        <v>5.642372971019995</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5703192176193994</v>
+        <v>1.677493826346662</v>
       </c>
       <c r="N10">
-        <v>1.89108481355305</v>
+        <v>1.006796604762897</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.06944129654746689</v>
+        <v>0.2159443227580766</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05876276722043983</v>
+        <v>0.02416621629329185</v>
       </c>
       <c r="E11">
-        <v>0.1011935519063982</v>
+        <v>0.2815760974587604</v>
       </c>
       <c r="F11">
-        <v>1.92693385348295</v>
+        <v>2.989162563371565</v>
       </c>
       <c r="G11">
-        <v>0.002461451114710695</v>
+        <v>0.0007479985218748005</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6465567562988142</v>
+        <v>0.4353147474195893</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.968357763462222</v>
+        <v>6.103559242344602</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6023418855721872</v>
+        <v>1.815672453024987</v>
       </c>
       <c r="N11">
-        <v>1.883983210382453</v>
+        <v>0.9946629746735596</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07111817771490792</v>
+        <v>0.2212684218797989</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05862775055177138</v>
+        <v>0.02387551493733397</v>
       </c>
       <c r="E12">
-        <v>0.1030130990231868</v>
+        <v>0.2899147554823713</v>
       </c>
       <c r="F12">
-        <v>1.94179804131636</v>
+        <v>3.065709552337495</v>
       </c>
       <c r="G12">
-        <v>0.002460140877374609</v>
+        <v>0.0007454881876953525</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6466447325975153</v>
+        <v>0.4384907180494366</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.009698104824338</v>
+        <v>6.280669808327445</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.614511298886498</v>
+        <v>1.868800396925977</v>
       </c>
       <c r="N12">
-        <v>1.881391651815562</v>
+        <v>0.9905315291140511</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07075705858738957</v>
+        <v>0.2201217519459675</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05865667985820266</v>
+        <v>0.02393709081991702</v>
       </c>
       <c r="E13">
-        <v>0.1026208184864004</v>
+        <v>0.288111704216611</v>
       </c>
       <c r="F13">
-        <v>1.938588808866257</v>
+        <v>3.049147116414474</v>
       </c>
       <c r="G13">
-        <v>0.002460421979989367</v>
+        <v>0.0007460286942570611</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6466239841966939</v>
+        <v>0.4377979983104581</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.000789123069126</v>
+        <v>6.242409020209266</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6118884626194045</v>
+        <v>1.857320376102351</v>
       </c>
       <c r="N13">
-        <v>1.881945438377983</v>
+        <v>0.9913998604442043</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.06957926664075842</v>
+        <v>0.2163823274568131</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05875159224123294</v>
+        <v>0.0241418401652993</v>
       </c>
       <c r="E14">
-        <v>0.10134306341957</v>
+        <v>0.282258931484499</v>
       </c>
       <c r="F14">
-        <v>1.928153153448164</v>
+        <v>2.995425962669771</v>
       </c>
       <c r="G14">
-        <v>0.002461342833505244</v>
+        <v>0.0007477919267376728</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6465631827498655</v>
+        <v>0.4355721400960775</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.971756339339663</v>
+        <v>6.118078234289158</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6033421999983091</v>
+        <v>1.82002642414281</v>
       </c>
       <c r="N14">
-        <v>1.883768040982375</v>
+        <v>0.9943134915383638</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.06885775768263613</v>
+        <v>0.2140918938960539</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05881016445728804</v>
+        <v>0.02427021792100703</v>
       </c>
       <c r="E15">
-        <v>0.1005615935027109</v>
+        <v>0.2786944794093245</v>
       </c>
       <c r="F15">
-        <v>1.921784298207115</v>
+        <v>2.962740249604309</v>
       </c>
       <c r="G15">
-        <v>0.002461910049044926</v>
+        <v>0.0007488724320301648</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6465312115460762</v>
+        <v>0.4342338906071674</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.953989265820496</v>
+        <v>6.042256541095355</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5981130158115064</v>
+        <v>1.797291501532001</v>
       </c>
       <c r="N15">
-        <v>1.884897171911263</v>
+        <v>0.9961600608767469</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.06472199966461289</v>
+        <v>0.2009667711710108</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05915247348062991</v>
+        <v>0.02504885681546654</v>
       </c>
       <c r="E16">
-        <v>0.09610139003599016</v>
+        <v>0.2585634242342465</v>
       </c>
       <c r="F16">
-        <v>1.885642389604953</v>
+        <v>2.778615677745421</v>
       </c>
       <c r="G16">
-        <v>0.002465209165617638</v>
+        <v>0.0007550745341965851</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6464286845096225</v>
+        <v>0.4269346088452721</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.852421618875098</v>
+        <v>5.612555747691715</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.56823243619084</v>
+        <v>1.668568389491426</v>
       </c>
       <c r="N16">
-        <v>1.891562558522182</v>
+        <v>1.007651615938784</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06218399423893572</v>
+        <v>0.1929146005005435</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05936838410789491</v>
+        <v>0.02556235555587705</v>
       </c>
       <c r="E17">
-        <v>0.09338113714078844</v>
+        <v>0.2464572254122359</v>
       </c>
       <c r="F17">
-        <v>1.863786063052004</v>
+        <v>2.668307842707691</v>
       </c>
       <c r="G17">
-        <v>0.002467276577505571</v>
+        <v>0.0007588913775436147</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6464376671610665</v>
+        <v>0.4227702065539631</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.79033225830301</v>
+        <v>5.352899493948655</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5499773144032503</v>
+        <v>1.590886624387352</v>
       </c>
       <c r="N17">
-        <v>1.895824956873284</v>
+        <v>1.015472810783294</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06072393270696352</v>
+        <v>0.1882828086586699</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05949473473069489</v>
+        <v>0.02586994446122759</v>
       </c>
       <c r="E18">
-        <v>0.09182229777164963</v>
+        <v>0.2395760588736096</v>
       </c>
       <c r="F18">
-        <v>1.851330224288233</v>
+        <v>2.605761255121962</v>
       </c>
       <c r="G18">
-        <v>0.002468481733459305</v>
+        <v>0.0007610922773233015</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6464692024139325</v>
+        <v>0.420483962852721</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.754699660919982</v>
+        <v>5.20487871928583</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5395049040337625</v>
+        <v>1.546638211782025</v>
       </c>
       <c r="N18">
-        <v>1.898340134538174</v>
+        <v>1.020239787201106</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06022953922990837</v>
+        <v>0.186714470301979</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05953788577157582</v>
+        <v>0.02597610801674932</v>
       </c>
       <c r="E19">
-        <v>0.09129548651124253</v>
+        <v>0.237259623053923</v>
       </c>
       <c r="F19">
-        <v>1.847132642340682</v>
+        <v>2.584731978971178</v>
       </c>
       <c r="G19">
-        <v>0.002468892536633022</v>
+        <v>0.000761838518846386</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6464844041234485</v>
+        <v>0.4197280430927108</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.742648650023625</v>
+        <v>5.154977995625472</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5359638081822453</v>
+        <v>1.531727037088785</v>
       </c>
       <c r="N19">
-        <v>1.899202631209747</v>
+        <v>1.021898548042714</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06245419799844854</v>
+        <v>0.1937718027909341</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05934517582393184</v>
+        <v>0.02550640617591782</v>
       </c>
       <c r="E20">
-        <v>0.09367011291846694</v>
+        <v>0.2477373018013367</v>
       </c>
       <c r="F20">
-        <v>1.86610075478302</v>
+        <v>2.679955614172712</v>
       </c>
       <c r="G20">
-        <v>0.002467054839445174</v>
+        <v>0.0007584845177926961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6464339808330379</v>
+        <v>0.4232020974576827</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.796933521006338</v>
+        <v>5.380400324531934</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5519177542300753</v>
+        <v>1.599110386170949</v>
       </c>
       <c r="N20">
-        <v>1.895364635490964</v>
+        <v>1.014612122149344</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.06992522906173804</v>
+        <v>0.217480670439187</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05872362333446546</v>
+        <v>0.02408107674876447</v>
       </c>
       <c r="E21">
-        <v>0.1017181222100589</v>
+        <v>0.2839737040113874</v>
       </c>
       <c r="F21">
-        <v>1.931213502296259</v>
+        <v>3.011158844152391</v>
       </c>
       <c r="G21">
-        <v>0.002461071697155469</v>
+        <v>0.0007472739309380769</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6465799427813934</v>
+        <v>0.4362206476916768</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.980280560026074</v>
+        <v>6.154526687472242</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6058512654097683</v>
+        <v>1.830957650286237</v>
       </c>
       <c r="N21">
-        <v>1.883230043686979</v>
+        <v>0.9934446941926183</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.07480463744850852</v>
+        <v>0.2329782544029371</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05833687606621751</v>
+        <v>0.02327957358798471</v>
       </c>
       <c r="E22">
-        <v>0.1070310979467521</v>
+        <v>0.3085548704892176</v>
       </c>
       <c r="F22">
-        <v>1.97480893835106</v>
+        <v>3.237266145744712</v>
       </c>
       <c r="G22">
-        <v>0.002457303199637511</v>
+        <v>0.0007399714979344304</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6469111479733201</v>
+        <v>0.4458377451529003</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.100837415900742</v>
+        <v>6.675087948169448</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.641351807058939</v>
+        <v>1.987236722105436</v>
       </c>
       <c r="N22">
-        <v>1.875868894302016</v>
+        <v>0.9823387531247789</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.07220075731514441</v>
+        <v>0.2247063710188684</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05854149882147652</v>
+        <v>0.02369431888882545</v>
       </c>
       <c r="E23">
-        <v>0.1041905186734482</v>
+        <v>0.2953442909250512</v>
       </c>
       <c r="F23">
-        <v>1.951445374565395</v>
+        <v>3.115619226233235</v>
       </c>
       <c r="G23">
-        <v>0.002459301586290985</v>
+        <v>0.0007438680425270228</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6467127519818163</v>
+        <v>0.440596226879407</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.036426249802446</v>
+        <v>6.395767622561209</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6223810911069307</v>
+        <v>1.903344729121656</v>
       </c>
       <c r="N23">
-        <v>1.879745395988508</v>
+        <v>0.9879987232282161</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.06233204176022866</v>
+        <v>0.1933842694611059</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05935566137424431</v>
+        <v>0.02553166257461825</v>
       </c>
       <c r="E24">
-        <v>0.09353945119514862</v>
+        <v>0.2471583354349178</v>
       </c>
       <c r="F24">
-        <v>1.865053941249556</v>
+        <v>2.674686961364813</v>
       </c>
       <c r="G24">
-        <v>0.002467155035467631</v>
+        <v>0.0007586684384680428</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6464355652931602</v>
+        <v>0.4230065048709406</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.79394889287687</v>
+        <v>5.367963306823867</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5510404107531883</v>
+        <v>1.595391150090009</v>
       </c>
       <c r="N24">
-        <v>1.895572545400071</v>
+        <v>1.015000400593351</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05167732682984649</v>
+        <v>0.1595801596474047</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06031651294392759</v>
+        <v>0.02797347854489374</v>
       </c>
       <c r="E25">
-        <v>0.08227044632079838</v>
+        <v>0.1982480468161398</v>
       </c>
       <c r="F25">
-        <v>1.776268464166975</v>
+        <v>2.232783664683751</v>
       </c>
       <c r="G25">
-        <v>0.002476239905276001</v>
+        <v>0.0007748558777915577</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6471441054161104</v>
+        <v>0.4081417296425514</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.535426873287747</v>
+        <v>4.308869561878396</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4751329715155634</v>
+        <v>1.279359866609909</v>
       </c>
       <c r="N25">
-        <v>1.915072674647078</v>
+        <v>1.054248683760264</v>
       </c>
       <c r="O25">
         <v>0</v>
